--- a/Team-Data/2020-21/12-31-2020-21.xlsx
+++ b/Team-Data/2020-21/12-31-2020-21.xlsx
@@ -811,37 +811,37 @@
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -856,13 +856,13 @@
         <v>7</v>
       </c>
       <c r="AS2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>16</v>
@@ -874,19 +874,19 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB2" t="n">
         <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -996,43 +996,43 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
         <v>6</v>
@@ -1044,7 +1044,7 @@
         <v>26</v>
       </c>
       <c r="AU3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV3" t="n">
         <v>7</v>
@@ -1056,16 +1056,16 @@
         <v>3</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>16</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -1178,70 +1178,70 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>3</v>
       </c>
       <c r="AM4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS4" t="n">
         <v>6</v>
       </c>
-      <c r="AP4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>7</v>
       </c>
-      <c r="AT4" t="n">
-        <v>8</v>
-      </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -1357,13 +1357,13 @@
         <v>3</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1372,67 +1372,67 @@
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN5" t="n">
         <v>9</v>
       </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10</v>
-      </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
         <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -1461,127 +1461,127 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>40.4</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>88.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.456</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
         <v>14</v>
       </c>
       <c r="M6" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O6" t="n">
-        <v>22.4</v>
+        <v>23.3</v>
       </c>
       <c r="P6" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.794</v>
+        <v>0.802</v>
       </c>
       <c r="R6" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V6" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.2</v>
+        <v>113.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5.8</v>
+        <v>-8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
       </c>
       <c r="AI6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>19</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>18</v>
-      </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN6" t="n">
         <v>12</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS6" t="n">
         <v>20</v>
@@ -1590,31 +1590,31 @@
         <v>24</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AY6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
         <v>1</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -1643,121 +1643,121 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="I7" t="n">
-        <v>42.2</v>
+        <v>43.5</v>
       </c>
       <c r="J7" t="n">
-        <v>89.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.472</v>
+        <v>0.477</v>
       </c>
       <c r="L7" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="M7" t="n">
-        <v>27.6</v>
+        <v>28.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.399</v>
+        <v>0.374</v>
       </c>
       <c r="O7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.67</v>
+        <v>0.705</v>
       </c>
       <c r="R7" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>35.8</v>
+        <v>36.8</v>
       </c>
       <c r="T7" t="n">
-        <v>46.4</v>
+        <v>47.3</v>
       </c>
       <c r="U7" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="V7" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W7" t="n">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="X7" t="n">
         <v>5.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.4</v>
+        <v>113.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2</v>
-      </c>
       <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>9</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>27</v>
@@ -1766,37 +1766,37 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -1903,16 +1903,16 @@
         <v>1.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF8" t="n">
         <v>23</v>
       </c>
-      <c r="AF8" t="n">
-        <v>21</v>
-      </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
@@ -1933,19 +1933,19 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ8" t="n">
         <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>28</v>
@@ -1960,22 +1960,22 @@
         <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
         <v>5</v>
       </c>
       <c r="BA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC8" t="n">
         <v>13</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -2085,25 +2085,25 @@
         <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="n">
         <v>23</v>
       </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>4</v>
       </c>
       <c r="AI9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>3</v>
@@ -2115,40 +2115,40 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
         <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
         <v>17</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ9" t="n">
         <v>12</v>
@@ -2157,10 +2157,10 @@
         <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -2267,22 +2267,22 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
         <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2291,58 +2291,58 @@
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW10" t="n">
         <v>18</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>19</v>
       </c>
       <c r="AX10" t="n">
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -2449,13 +2449,13 @@
         <v>-13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -2464,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>4</v>
@@ -2476,52 +2476,52 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
       </c>
       <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>3</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>12</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>24</v>
       </c>
       <c r="AT11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU11" t="n">
         <v>27</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX11" t="n">
         <v>8</v>
       </c>
-      <c r="AX11" t="n">
-        <v>6</v>
-      </c>
       <c r="AY11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB11" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>30</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -2553,161 +2553,161 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49.7</v>
+        <v>50.5</v>
       </c>
       <c r="I12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3</v>
+        <v>86.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
       <c r="L12" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="M12" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="P12" t="n">
-        <v>26.7</v>
+        <v>27.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R12" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="S12" t="n">
-        <v>33.3</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="U12" t="n">
         <v>26</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>119.7</v>
+        <v>118.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-4</v>
+        <v>-7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>30</v>
       </c>
       <c r="AE12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>23</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP12" t="n">
         <v>7</v>
       </c>
-      <c r="AG12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AQ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB12" t="n">
         <v>6</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="BC12" t="n">
         <v>22</v>
       </c>
-      <c r="AK12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>20</v>
-      </c>
       <c r="BD12" t="n">
         <v>10</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -2735,94 +2735,94 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>45.6</v>
+        <v>46.5</v>
       </c>
       <c r="J13" t="n">
-        <v>89.2</v>
+        <v>89.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.511</v>
+        <v>0.518</v>
       </c>
       <c r="L13" t="n">
-        <v>10.4</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.338</v>
+        <v>0.303</v>
       </c>
       <c r="O13" t="n">
-        <v>15.2</v>
+        <v>14.3</v>
       </c>
       <c r="P13" t="n">
-        <v>20.6</v>
+        <v>19.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.738</v>
+        <v>0.722</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T13" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U13" t="n">
         <v>28</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>116.8</v>
+        <v>116.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2837,43 +2837,43 @@
         <v>2</v>
       </c>
       <c r="AL13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO13" t="n">
         <v>27</v>
       </c>
-      <c r="AM13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>24</v>
-      </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
       </c>
       <c r="AR13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW13" t="n">
         <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>26</v>
@@ -2882,13 +2882,13 @@
         <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>9</v>
@@ -3013,49 +3013,49 @@
         <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP14" t="n">
         <v>24</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3067,10 +3067,10 @@
         <v>30</v>
       </c>
       <c r="BB14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -3180,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3195,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>1</v>
@@ -3207,43 +3207,43 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>16</v>
       </c>
-      <c r="AP15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>14</v>
-      </c>
       <c r="AR15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -3359,22 +3359,22 @@
         <v>-9</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF16" t="n">
         <v>23</v>
       </c>
-      <c r="AF16" t="n">
-        <v>21</v>
-      </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
         <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>3</v>
@@ -3383,16 +3383,16 @@
         <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>11</v>
@@ -3401,40 +3401,40 @@
         <v>19</v>
       </c>
       <c r="AR16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS16" t="n">
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -3541,13 +3541,13 @@
         <v>-7.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
@@ -3556,13 +3556,13 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL17" t="n">
         <v>16</v>
@@ -3571,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3580,16 +3580,16 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
         <v>13</v>
@@ -3598,7 +3598,7 @@
         <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
@@ -3607,16 +3607,16 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -3726,25 +3726,25 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG18" t="n">
         <v>21</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>20</v>
       </c>
       <c r="AH18" t="n">
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
@@ -3753,10 +3753,10 @@
         <v>3</v>
       </c>
       <c r="AN18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>24</v>
@@ -3768,31 +3768,31 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>2</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -3905,13 +3905,13 @@
         <v>-11</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -3920,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3929,22 +3929,22 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>16</v>
       </c>
       <c r="AN19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
         <v>25</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR19" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>6</v>
@@ -3965,19 +3965,19 @@
         <v>13</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
         <v>29</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -4009,160 +4009,160 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="J20" t="n">
-        <v>84</v>
+        <v>82.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>32.2</v>
+        <v>31.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.311</v>
+        <v>0.296</v>
       </c>
       <c r="O20" t="n">
-        <v>15.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.655</v>
+        <v>0.66</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>37.6</v>
+        <v>36</v>
       </c>
       <c r="T20" t="n">
-        <v>48.2</v>
+        <v>45.8</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="V20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W20" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.6</v>
+        <v>98.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL20" t="n">
         <v>28</v>
       </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>29</v>
       </c>
-      <c r="AM20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>28</v>
-      </c>
       <c r="AR20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS20" t="n">
         <v>11</v>
       </c>
-      <c r="AS20" t="n">
-        <v>6</v>
-      </c>
       <c r="AT20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW20" t="n">
         <v>5</v>
       </c>
-      <c r="AU20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4</v>
-      </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -4191,145 +4191,145 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6</v>
+        <v>37.8</v>
       </c>
       <c r="J21" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.455</v>
       </c>
       <c r="L21" t="n">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>27.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.459</v>
       </c>
       <c r="O21" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="P21" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.746</v>
+        <v>0.734</v>
       </c>
       <c r="R21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>36.6</v>
+        <v>36</v>
       </c>
       <c r="T21" t="n">
-        <v>46.4</v>
+        <v>46</v>
       </c>
       <c r="U21" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="V21" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="W21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.8</v>
+        <v>105.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG21" t="n">
         <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AM21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
         <v>16</v>
       </c>
       <c r="AP21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW21" t="n">
         <v>20</v>
       </c>
-      <c r="AV21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>23</v>
-      </c>
       <c r="AX21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
         <v>28</v>
@@ -4338,13 +4338,13 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -4373,160 +4373,160 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>41</v>
       </c>
       <c r="J22" t="n">
-        <v>85.3</v>
+        <v>87</v>
       </c>
       <c r="K22" t="n">
-        <v>0.449</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="M22" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N22" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="O22" t="n">
-        <v>12</v>
+        <v>14.3</v>
       </c>
       <c r="P22" t="n">
-        <v>19.3</v>
+        <v>20.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.623</v>
+        <v>0.694</v>
       </c>
       <c r="R22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>36.3</v>
+        <v>37.3</v>
       </c>
       <c r="T22" t="n">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="U22" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
+        <v>18</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z22" t="n">
         <v>18.3</v>
       </c>
-      <c r="W22" t="n">
-        <v>7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>18.8</v>
-      </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.3</v>
+        <v>108.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-10.8</v>
+        <v>-3.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
       </c>
       <c r="AI22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU22" t="n">
         <v>25</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AV22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA22" t="n">
         <v>14</v>
       </c>
-      <c r="AM22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN22" t="n">
+      <c r="BB22" t="n">
         <v>25</v>
       </c>
-      <c r="AO22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>16</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>29</v>
-      </c>
       <c r="BC22" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -4555,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>41.8</v>
+        <v>44</v>
       </c>
       <c r="J23" t="n">
-        <v>91.8</v>
+        <v>91</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.484</v>
       </c>
       <c r="L23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.328</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>22.2</v>
+        <v>23</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>28.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.828</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="S23" t="n">
-        <v>35.8</v>
+        <v>35.3</v>
       </c>
       <c r="T23" t="n">
-        <v>46.8</v>
+        <v>46.5</v>
       </c>
       <c r="U23" t="n">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="V23" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="W23" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="X23" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>114.6</v>
+        <v>120.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4648,67 +4648,67 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
         <v>7</v>
       </c>
-      <c r="AK23" t="n">
-        <v>18</v>
-      </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>30</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="n">
         <v>4</v>
       </c>
-      <c r="AP23" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR23" t="n">
         <v>9</v>
       </c>
       <c r="AS23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW23" t="n">
         <v>3</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BC23" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -4737,139 +4737,139 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>38.2</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>85.8</v>
+        <v>84.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.435</v>
       </c>
       <c r="L24" t="n">
-        <v>10.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.338</v>
+        <v>0.307</v>
       </c>
       <c r="O24" t="n">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="P24" t="n">
-        <v>24.4</v>
+        <v>26.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.787</v>
+        <v>0.776</v>
       </c>
       <c r="R24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T24" t="n">
-        <v>48.2</v>
+        <v>46.8</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>22.8</v>
+        <v>24.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>106.4</v>
+        <v>104</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>9</v>
       </c>
       <c r="AI24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU24" t="n">
         <v>26</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU24" t="n">
+      <c r="AV24" t="n">
         <v>25</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>7</v>
@@ -4878,19 +4878,19 @@
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -4919,157 +4919,157 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J25" t="n">
-        <v>87.8</v>
+        <v>88.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="M25" t="n">
-        <v>37.8</v>
+        <v>39</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.353</v>
       </c>
       <c r="O25" t="n">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="S25" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.8</v>
       </c>
       <c r="U25" t="n">
         <v>26</v>
       </c>
       <c r="V25" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>108.4</v>
+        <v>109</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH25" t="n">
         <v>9</v>
       </c>
       <c r="AI25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>18</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>19</v>
-      </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>3</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -5179,13 +5179,13 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -5194,10 +5194,10 @@
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
@@ -5218,40 +5218,40 @@
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
         <v>29</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB26" t="n">
         <v>17</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>25</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -5283,160 +5283,160 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H27" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="I27" t="n">
-        <v>42.2</v>
+        <v>41.5</v>
       </c>
       <c r="J27" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L27" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="M27" t="n">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.364</v>
+        <v>0.373</v>
       </c>
       <c r="O27" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="R27" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>34.5</v>
       </c>
       <c r="T27" t="n">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="U27" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="V27" t="n">
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="X27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y27" t="n">
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>114.8</v>
+        <v>113.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR27" t="n">
         <v>5</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>4</v>
-      </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU27" t="n">
         <v>14</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>8</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AX27" t="n">
         <v>12</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>22</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -5543,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -5558,68 +5558,68 @@
         <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL28" t="n">
         <v>20</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>28</v>
       </c>
       <c r="AQ28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU28" t="n">
         <v>3</v>
       </c>
-      <c r="AR28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>2</v>
-      </c>
       <c r="AV28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX28" t="n">
         <v>5</v>
       </c>
-      <c r="AW28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4</v>
-      </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC28" t="n">
         <v>14</v>
       </c>
-      <c r="BB28" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>15</v>
-      </c>
       <c r="BD28" t="n">
         <v>10</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -5647,103 +5647,103 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>89.5</v>
+        <v>91.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.413</v>
+        <v>0.415</v>
       </c>
       <c r="L29" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="M29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N29" t="n">
-        <v>0.342</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
-        <v>11.8</v>
+        <v>10.7</v>
       </c>
       <c r="P29" t="n">
-        <v>15.5</v>
+        <v>13.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.758</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
         <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>36.3</v>
+        <v>33.7</v>
       </c>
       <c r="T29" t="n">
-        <v>45.3</v>
+        <v>42.7</v>
       </c>
       <c r="U29" t="n">
-        <v>25</v>
+        <v>26.3</v>
       </c>
       <c r="V29" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="W29" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>17.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.3</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="n">
         <v>23</v>
       </c>
-      <c r="AF29" t="n">
-        <v>21</v>
-      </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AK29" t="n">
         <v>29</v>
@@ -5764,43 +5764,43 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR29" t="n">
         <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX29" t="n">
         <v>2</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -5829,127 +5829,127 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.3</v>
+        <v>40.7</v>
       </c>
       <c r="J30" t="n">
-        <v>89.5</v>
+        <v>91.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.439</v>
+        <v>0.445</v>
       </c>
       <c r="L30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="M30" t="n">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="P30" t="n">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.786</v>
       </c>
       <c r="R30" t="n">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T30" t="n">
-        <v>51.3</v>
+        <v>53</v>
       </c>
       <c r="U30" t="n">
-        <v>19.8</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="X30" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>109</v>
+        <v>113.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS30" t="n">
         <v>1</v>
@@ -5958,31 +5958,31 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB30" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
@@ -6011,13 +6011,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -6026,130 +6026,130 @@
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="J31" t="n">
-        <v>89</v>
+        <v>90.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.474</v>
+        <v>0.468</v>
       </c>
       <c r="L31" t="n">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="M31" t="n">
-        <v>32.4</v>
+        <v>33.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.358</v>
+        <v>0.331</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>16.3</v>
       </c>
       <c r="P31" t="n">
-        <v>26.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.74</v>
+        <v>0.722</v>
       </c>
       <c r="R31" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S31" t="n">
-        <v>34.4</v>
+        <v>36</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>44.3</v>
       </c>
       <c r="U31" t="n">
         <v>27</v>
       </c>
       <c r="V31" t="n">
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="W31" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
         <v>3</v>
       </c>
       <c r="Z31" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>22</v>
+        <v>20.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>115.4</v>
+        <v>111.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.8</v>
+        <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF31" t="n">
         <v>29</v>
       </c>
-      <c r="AF31" t="n">
-        <v>30</v>
-      </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM31" t="n">
         <v>17</v>
       </c>
-      <c r="AK31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL31" t="n">
+      <c r="AN31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO31" t="n">
         <v>19</v>
       </c>
-      <c r="AM31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>9</v>
-      </c>
       <c r="AP31" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>26</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>1</v>
@@ -6158,10 +6158,10 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BB31" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>23</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-31-2020-21</t>
+          <t>2020-12-31</t>
         </is>
       </c>
     </row>
